--- a/digital-objects/omap/25-lung-codex/v1.1/raw/omap-25-lung-codex.xlsx
+++ b/digital-objects/omap/25-lung-codex/v1.1/raw/omap-25-lung-codex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/25-lung-codex/v1.1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22F72C-FDDC-F546-A924-BEB39D73F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034ED88-BEFC-4D47-AD4B-59B8EDAC9076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="7240" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="34200" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OMAP_Template" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Version Number:</t>
-  </si>
-  <si>
-    <t>v1.0</t>
   </si>
   <si>
     <t>omap_id</t>
@@ -1275,10 +1272,13 @@
     <t>Keratin, type II cytoskeletal 8; Expression is associated with transitional states of alveolar epithelial cells in injury and repair</t>
   </si>
   <si>
-    <t>https://doi.org/10.48539/HBM637.GFWK.542</t>
+    <t>OMAP-25: Expanded Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Human Lung with CODEX</t>
   </si>
   <si>
-    <t>OMAP-25: Expanded Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Human Lung with CODEX</t>
+    <t>https://doi.org/10.48539/HBM497.LJTV.953</t>
+  </si>
+  <si>
+    <t>v1.1</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1983,7 @@
       <pane xSplit="4" ySplit="11" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="D4:E4"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2021,7 +2021,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -2456,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="13">
-        <v>45823</v>
+        <v>46006</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2511,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
@@ -2563,82 +2563,82 @@
     </row>
     <row r="11" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="O11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="P11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="Q11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="R11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="S11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="T11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="U11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="V11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="W11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="X11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="Y11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Y11" s="17" t="s">
+      <c r="Z11" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
@@ -2666,80 +2666,80 @@
     </row>
     <row r="12" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="I12" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="J12" s="23">
         <v>4250021</v>
       </c>
       <c r="K12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="24">
         <v>200</v>
       </c>
       <c r="O12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="Q12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S12" s="25">
         <v>8</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="V12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="22" t="s">
+      <c r="W12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="27" t="s">
+      <c r="Y12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Z12" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z12" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
@@ -2767,80 +2767,80 @@
     </row>
     <row r="13" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="I13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="J13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="L13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="24">
         <v>100</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S13" s="29">
         <v>1</v>
       </c>
       <c r="T13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="V13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="X13" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="Y13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA13" s="29"/>
       <c r="AB13" s="29"/>
@@ -2868,31 +2868,31 @@
     </row>
     <row r="14" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>74</v>
-      </c>
       <c r="I14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="23">
         <v>4250019</v>
@@ -2901,47 +2901,47 @@
         <v>220718025</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="24">
         <v>200</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S14" s="29">
         <v>13</v>
       </c>
       <c r="T14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="30" t="s">
+      <c r="V14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W14" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z14" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA14" s="29"/>
       <c r="AB14" s="29"/>
@@ -2969,31 +2969,31 @@
     </row>
     <row r="15" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="20">
         <v>4450049</v>
@@ -3002,47 +3002,47 @@
         <v>230309013</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>83</v>
-      </c>
       <c r="Q15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S15" s="29">
         <v>14</v>
       </c>
       <c r="T15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="X15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="U15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="Y15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z15" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA15" s="29"/>
       <c r="AB15" s="29"/>
@@ -3070,78 +3070,78 @@
     </row>
     <row r="16" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>94</v>
-      </c>
       <c r="L16" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S16" s="29">
         <v>2</v>
       </c>
       <c r="T16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="30" t="s">
+      <c r="V16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V16" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W16" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z16" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
@@ -3169,80 +3169,80 @@
     </row>
     <row r="17" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="I17" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="23">
         <v>4550112</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="24">
         <v>200</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S17" s="29">
         <v>14</v>
       </c>
       <c r="T17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="U17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X17" s="27" t="s">
-        <v>106</v>
-      </c>
       <c r="Y17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z17" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z17" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
@@ -3270,80 +3270,80 @@
     </row>
     <row r="18" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="I18" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="23">
         <v>4550113</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="24">
         <v>200</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S18" s="29">
         <v>13</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W18" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X18" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z18" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
@@ -3371,80 +3371,80 @@
     </row>
     <row r="19" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>117</v>
-      </c>
       <c r="I19" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="32">
         <v>4550121</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="24">
         <v>200</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S19" s="29">
         <v>2</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W19" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z19" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z19" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -3472,80 +3472,80 @@
     </row>
     <row r="20" spans="1:49" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="22" t="s">
+      <c r="I20" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="33" t="s">
-        <v>127</v>
-      </c>
       <c r="L20" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="O20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>129</v>
-      </c>
       <c r="Q20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S20" s="35">
         <v>6</v>
       </c>
       <c r="T20" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W20" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X20" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
@@ -3573,80 +3573,80 @@
     </row>
     <row r="21" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>134</v>
-      </c>
       <c r="I21" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" s="23">
         <v>4550119</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="24">
         <v>200</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S21" s="29">
         <v>15</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V21" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W21" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z21" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z21" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
@@ -3674,80 +3674,80 @@
     </row>
     <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>141</v>
-      </c>
       <c r="I22" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="23">
         <v>4450018</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="24">
         <v>200</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S22" s="29">
         <v>13</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W22" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X22" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z22" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z22" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
@@ -3775,80 +3775,80 @@
     </row>
     <row r="23" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="D23" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" s="23">
         <v>4450017</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="24">
         <v>200</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S23" s="29">
         <v>1</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W23" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X23" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z23" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
@@ -3876,78 +3876,78 @@
     </row>
     <row r="24" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="D24" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="E24" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="G24" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="L24" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S24" s="29">
         <v>2</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V24" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X24" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z24" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z24" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA24" s="29"/>
       <c r="AB24" s="29"/>
@@ -3975,78 +3975,78 @@
     </row>
     <row r="25" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>163</v>
-      </c>
       <c r="F25" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="19" t="s">
-        <v>166</v>
-      </c>
       <c r="L25" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="O25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="Q25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S25" s="29">
         <v>3</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W25" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X25" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z25" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA25" s="29"/>
       <c r="AB25" s="36"/>
@@ -4074,80 +4074,80 @@
     </row>
     <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="I26" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="23">
         <v>4450020</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="24">
         <v>200</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S26" s="29">
         <v>15</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W26" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z26" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA26" s="37"/>
       <c r="AB26" s="37"/>
@@ -4175,80 +4175,80 @@
     </row>
     <row r="27" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>179</v>
-      </c>
       <c r="I27" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="23">
         <v>4250012</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="24">
         <v>200</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S27" s="29">
         <v>15</v>
       </c>
       <c r="T27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U27" s="30" t="s">
+      <c r="V27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V27" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W27" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X27" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z27" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA27" s="29"/>
       <c r="AB27" s="29"/>
@@ -4276,31 +4276,31 @@
     </row>
     <row r="28" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="E28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>186</v>
-      </c>
       <c r="I28" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2">
         <v>4550118</v>
@@ -4309,47 +4309,47 @@
         <v>230502016</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="24">
         <v>200</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S28" s="29">
         <v>1</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V28" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V28" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W28" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X28" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z28" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z28" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA28" s="2"/>
       <c r="AB28" s="25"/>
@@ -4377,80 +4377,80 @@
     </row>
     <row r="29" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="22" t="s">
+      <c r="I29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="21" t="s">
+      <c r="K29" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="38" t="s">
-        <v>194</v>
-      </c>
       <c r="L29" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="1">
         <v>100</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S29" s="29">
         <v>4</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V29" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W29" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X29" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z29" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z29" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA29" s="29"/>
       <c r="AB29" s="29"/>
@@ -4478,80 +4478,80 @@
     </row>
     <row r="30" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="E30" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="I30" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="39" t="s">
+      <c r="K30" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="L30" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S30" s="29">
         <v>7</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V30" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W30" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X30" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z30" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z30" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA30" s="29"/>
       <c r="AB30" s="29"/>
@@ -4579,80 +4579,80 @@
     </row>
     <row r="31" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="22" t="s">
+      <c r="I31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I31" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="K31" s="22" t="s">
-        <v>210</v>
-      </c>
       <c r="L31" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="1">
         <v>1000</v>
       </c>
       <c r="O31" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R31" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S31" s="29">
         <v>4</v>
       </c>
       <c r="T31" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U31" s="30" t="s">
+      <c r="V31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V31" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W31" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X31" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z31" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z31" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA31" s="29"/>
       <c r="AB31" s="29"/>
@@ -4680,80 +4680,80 @@
     </row>
     <row r="32" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="E32" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="I32" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2">
         <v>4450047</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="24">
         <v>200</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S32" s="29">
         <v>14</v>
       </c>
       <c r="T32" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U32" s="30" t="s">
+      <c r="V32" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V32" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W32" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X32" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z32" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z32" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA32" s="29"/>
       <c r="AB32" s="29"/>
@@ -4781,80 +4781,80 @@
     </row>
     <row r="33" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="E33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="G33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="I33" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I33" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="L33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="1">
         <v>100</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R33" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S33" s="29">
         <v>3</v>
       </c>
       <c r="T33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U33" s="30" t="s">
+      <c r="V33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V33" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W33" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X33" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z33" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z33" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA33" s="29"/>
       <c r="AB33" s="29"/>
@@ -4882,80 +4882,80 @@
     </row>
     <row r="34" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="E34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>232</v>
-      </c>
       <c r="I34" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="2">
         <v>4250079</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="24">
         <v>200</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R34" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S34" s="29">
         <v>5</v>
       </c>
       <c r="T34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U34" s="30" t="s">
+      <c r="V34" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V34" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W34" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X34" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z34" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z34" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA34" s="29"/>
       <c r="AB34" s="29"/>
@@ -4983,80 +4983,80 @@
     </row>
     <row r="35" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="E35" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>239</v>
-      </c>
       <c r="I35" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35" s="2">
         <v>4550122</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="24">
         <v>200</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R35" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R35" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S35" s="29">
         <v>5</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U35" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V35" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W35" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X35" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z35" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z35" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA35" s="29"/>
       <c r="AB35" s="29"/>
@@ -5084,80 +5084,80 @@
     </row>
     <row r="36" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>246</v>
-      </c>
       <c r="I36" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J36" s="2">
         <v>4450090</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M36" s="19"/>
       <c r="N36" s="24">
         <v>200</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R36" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S36" s="29">
         <v>5</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U36" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V36" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V36" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W36" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X36" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z36" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA36" s="41"/>
       <c r="AB36" s="25"/>
@@ -5185,80 +5185,80 @@
     </row>
     <row r="37" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="I37" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37" s="23">
         <v>4550071</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="24">
         <v>200</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="R37" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="S37" s="29">
         <v>3</v>
       </c>
       <c r="T37" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V37" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W37" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X37" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z37" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z37" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
@@ -5286,80 +5286,80 @@
     </row>
     <row r="38" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="E38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="28" t="s">
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>261</v>
-      </c>
       <c r="I38" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38" s="32">
         <v>4550114</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="1">
         <v>200</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="R38" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="S38" s="29">
         <v>4</v>
       </c>
       <c r="T38" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V38" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X38" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z38" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z38" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA38" s="29"/>
       <c r="AB38" s="29"/>
@@ -5387,31 +5387,31 @@
     </row>
     <row r="39" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="D39" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="E39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>268</v>
-      </c>
       <c r="I39" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J39" s="2">
         <v>4250083</v>
@@ -5420,47 +5420,47 @@
         <v>230518016</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M39" s="19"/>
       <c r="N39" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R39" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S39" s="29">
         <v>6</v>
       </c>
       <c r="T39" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U39" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U39" s="30" t="s">
+      <c r="V39" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V39" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W39" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X39" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z39" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z39" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA39" s="45"/>
       <c r="AB39" s="45"/>
@@ -5488,78 +5488,78 @@
     </row>
     <row r="40" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="G40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="K40" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="K40" s="22" t="s">
-        <v>276</v>
-      </c>
       <c r="L40" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M40" s="19"/>
       <c r="N40" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S40" s="29">
         <v>6</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V40" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W40" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X40" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z40" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA40" s="29"/>
       <c r="AB40" s="29"/>
@@ -5587,80 +5587,80 @@
     </row>
     <row r="41" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="D41" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="22" t="s">
+      <c r="I41" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="I41" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J41" s="22" t="s">
+      <c r="K41" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="K41" s="22" t="s">
-        <v>284</v>
-      </c>
       <c r="L41" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="O41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P41" s="34" t="s">
-        <v>286</v>
-      </c>
       <c r="Q41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S41" s="29">
         <v>7</v>
       </c>
       <c r="T41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U41" s="30" t="s">
+      <c r="V41" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V41" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W41" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X41" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z41" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z41" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA41" s="29"/>
       <c r="AB41" s="29"/>
@@ -5688,80 +5688,80 @@
     </row>
     <row r="42" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="D42" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>291</v>
-      </c>
       <c r="F42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H42" s="2">
         <v>394324</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J42" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="K42" s="22" t="s">
-        <v>293</v>
-      </c>
       <c r="L42" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P42" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S42" s="29">
         <v>7</v>
       </c>
       <c r="T42" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U42" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V42" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V42" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W42" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X42" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z42" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z42" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA42" s="29"/>
       <c r="AB42" s="29"/>
@@ -5789,80 +5789,80 @@
     </row>
     <row r="43" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="D43" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="F43" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="I43" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="I43" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="K43" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="K43" s="22" t="s">
-        <v>302</v>
-      </c>
       <c r="L43" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S43" s="29">
         <v>9</v>
       </c>
       <c r="T43" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U43" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V43" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V43" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W43" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z43" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z43" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA43" s="29"/>
       <c r="AB43" s="29"/>
@@ -5890,80 +5890,80 @@
     </row>
     <row r="44" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="D44" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="I44" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I44" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="K44" s="22" t="s">
-        <v>310</v>
-      </c>
       <c r="L44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P44" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R44" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S44" s="29">
         <v>8</v>
       </c>
       <c r="T44" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V44" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V44" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W44" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X44" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z44" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z44" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA44" s="29"/>
       <c r="AB44" s="29"/>
@@ -5991,80 +5991,80 @@
     </row>
     <row r="45" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="D45" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" s="54" t="s">
+      <c r="I45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I45" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="L45" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="19">
         <v>200</v>
       </c>
       <c r="O45" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P45" s="50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R45" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S45" s="29">
         <v>10</v>
       </c>
       <c r="T45" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U45" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U45" s="30" t="s">
+      <c r="V45" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V45" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W45" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X45" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z45" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z45" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA45" s="29"/>
       <c r="AB45" s="29"/>
@@ -6092,31 +6092,31 @@
     </row>
     <row r="46" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="D46" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="E46" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="I46" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J46" s="2">
         <v>4450031</v>
@@ -6125,47 +6125,47 @@
         <v>230818011</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19">
         <v>200</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P46" s="50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R46" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S46" s="29">
         <v>9</v>
       </c>
       <c r="T46" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="30" t="s">
+      <c r="V46" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V46" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W46" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X46" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z46" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z46" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA46" s="58"/>
       <c r="AB46" s="58"/>
@@ -6193,80 +6193,80 @@
     </row>
     <row r="47" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="D47" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="E47" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="59" t="s">
+      <c r="I47" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="K47" s="2">
         <v>2712325</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19">
         <v>500</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="S47" s="29">
         <v>8</v>
       </c>
       <c r="T47" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V47" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V47" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W47" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X47" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z47" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z47" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
@@ -6294,78 +6294,78 @@
     </row>
     <row r="48" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="D48" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="D48" s="60" t="s">
-        <v>337</v>
-      </c>
       <c r="E48" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="G48" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H48" s="59"/>
       <c r="I48" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>339</v>
       </c>
       <c r="K48" s="2">
         <v>235668</v>
       </c>
       <c r="L48" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19">
         <v>500</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R48" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S48" s="29">
         <v>10</v>
       </c>
       <c r="T48" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V48" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V48" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W48" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X48" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z48" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z48" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA48" s="58"/>
       <c r="AB48" s="58"/>
@@ -6393,78 +6393,78 @@
     </row>
     <row r="49" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="D49" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="57" t="s">
-        <v>344</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H49" s="59"/>
       <c r="I49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="L49" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M49" s="23"/>
       <c r="N49" s="23">
         <v>50</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R49" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R49" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S49" s="35">
         <v>11</v>
       </c>
       <c r="T49" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V49" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V49" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W49" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X49" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z49" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z49" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA49" s="29"/>
       <c r="AB49" s="29"/>
@@ -6492,78 +6492,78 @@
     </row>
     <row r="50" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="D50" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="E50" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="F50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H50" s="65"/>
       <c r="I50" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="L50" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="23">
         <v>300</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R50" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R50" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S50" s="35">
         <v>9</v>
       </c>
       <c r="T50" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U50" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V50" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V50" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W50" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X50" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z50" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z50" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA50" s="29"/>
       <c r="AB50" s="29"/>
@@ -6591,31 +6591,31 @@
     </row>
     <row r="51" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="D51" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="E51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>360</v>
-      </c>
       <c r="I51" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51" s="2">
         <v>4250094</v>
@@ -6624,47 +6624,47 @@
         <v>230613015</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M51" s="50"/>
       <c r="N51" s="23">
         <v>200</v>
       </c>
       <c r="O51" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R51" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R51" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S51" s="35">
         <v>11</v>
       </c>
       <c r="T51" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U51" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U51" s="30" t="s">
+      <c r="V51" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V51" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W51" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X51" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z51" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z51" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA51" s="25"/>
       <c r="AB51" s="29"/>
@@ -6692,31 +6692,31 @@
     </row>
     <row r="52" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="D52" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="E52" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>366</v>
-      </c>
       <c r="I52" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J52" s="23">
         <v>4550084</v>
@@ -6725,47 +6725,47 @@
         <v>240123032</v>
       </c>
       <c r="L52" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M52" s="23"/>
       <c r="N52" s="23">
         <v>200</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R52" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R52" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S52" s="35">
         <v>10</v>
       </c>
       <c r="T52" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="U52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W52" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="X52" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="U52" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V52" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X52" s="23" t="s">
-        <v>369</v>
-      </c>
       <c r="Y52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z52" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z52" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA52" s="29"/>
       <c r="AB52" s="29"/>
@@ -6793,78 +6793,78 @@
     </row>
     <row r="53" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="D53" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="D53" s="68" t="s">
-        <v>372</v>
-      </c>
       <c r="E53" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="G53" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="L53" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M53" s="23"/>
       <c r="N53" s="23">
         <v>75</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R53" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R53" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S53" s="35">
         <v>11</v>
       </c>
       <c r="T53" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U53" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V53" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V53" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W53" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X53" s="69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z53" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z53" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA53" s="33"/>
       <c r="AB53" s="58"/>
@@ -6892,31 +6892,31 @@
     </row>
     <row r="54" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="D54" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="E54" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="E54" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>380</v>
-      </c>
       <c r="I54" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J54" s="23">
         <v>4250075</v>
@@ -6925,47 +6925,47 @@
         <v>100000023</v>
       </c>
       <c r="L54" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="2">
         <v>200</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R54" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R54" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S54" s="25">
         <v>12</v>
       </c>
       <c r="T54" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="U54" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="U54" s="30" t="s">
+      <c r="V54" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V54" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W54" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X54" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z54" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
@@ -6993,80 +6993,80 @@
     </row>
     <row r="55" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="D55" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="E55" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E55" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="K55" s="23">
         <v>1</v>
       </c>
       <c r="L55" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="23">
         <v>1000</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P55" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R55" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R55" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S55" s="35">
         <v>12</v>
       </c>
       <c r="T55" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U55" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V55" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V55" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W55" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z55" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z55" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
@@ -7094,80 +7094,80 @@
     </row>
     <row r="56" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="C56" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="D56" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="D56" s="60" t="s">
+      <c r="E56" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="J56" s="2">
         <v>904804</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L56" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="23">
         <v>400</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P56" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R56" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R56" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S56" s="35">
         <v>12</v>
       </c>
       <c r="T56" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U56" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V56" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="W56" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X56" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z56" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="Z56" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="AA56" s="23"/>
       <c r="AB56" s="29"/>
